--- a/Data/operations.xlsx
+++ b/Data/operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,49 +33,49 @@
     <t>Créé à</t>
   </si>
   <si>
-    <t>Perferendis est arc</t>
-  </si>
-  <si>
-    <t>2000-04-11</t>
-  </si>
-  <si>
-    <t>2022-06-19T15:03:44.000000Z</t>
-  </si>
-  <si>
-    <t>Fugiat alias perspi</t>
-  </si>
-  <si>
-    <t>2004-12-11</t>
-  </si>
-  <si>
-    <t>2022-06-19T15:03:40.000000Z</t>
-  </si>
-  <si>
-    <t>Nulla deserunt unde</t>
-  </si>
-  <si>
-    <t>1980-04-22</t>
-  </si>
-  <si>
-    <t>2022-06-19T15:03:35.000000Z</t>
-  </si>
-  <si>
-    <t>Libero ratione quis</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>2022-06-19T15:03:30.000000Z</t>
-  </si>
-  <si>
-    <t>Quis impedit qui nu</t>
-  </si>
-  <si>
-    <t>1971-02-11</t>
-  </si>
-  <si>
-    <t>2022-06-19T15:03:25.000000Z</t>
+    <t>Quod magni quo repud</t>
+  </si>
+  <si>
+    <t>2007-01-03</t>
+  </si>
+  <si>
+    <t>2022-06-22T19:00:29.000000Z</t>
+  </si>
+  <si>
+    <t>Ea voluptas aliqua</t>
+  </si>
+  <si>
+    <t>1987-09-14</t>
+  </si>
+  <si>
+    <t>2022-06-22T19:00:25.000000Z</t>
+  </si>
+  <si>
+    <t>In enim harum non cu</t>
+  </si>
+  <si>
+    <t>1983-10-18</t>
+  </si>
+  <si>
+    <t>2022-06-22T19:00:20.000000Z</t>
+  </si>
+  <si>
+    <t>Repudiandae reprehen</t>
+  </si>
+  <si>
+    <t>1981-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-22T19:00:15.000000Z</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>1111-11-11</t>
+  </si>
+  <si>
+    <t>2022-06-22T19:00:10.000000Z</t>
   </si>
   <si>
     <t>operation_date</t>
@@ -421,13 +421,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
